--- a/330_ntu_python/exchange_rate.xlsx
+++ b/330_ntu_python/exchange_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelin/Desktop/330_ntu_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA73A9F-566D-834C-BFAD-FCE47E68C557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229407C7-42FE-CE42-9278-9EA3F957C1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14880" yWindow="460" windowWidth="12580" windowHeight="16500" xr2:uid="{497F6508-1CAE-BC41-9385-903567435416}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>幣別</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +124,13 @@
   </si>
   <si>
     <t>現在時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +562,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -587,98 +594,326 @@
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B2">
+        <v>29.085000000000001</v>
+      </c>
+      <c r="C2">
+        <v>29.754999999999999</v>
+      </c>
+      <c r="D2">
+        <v>29.434999999999999</v>
+      </c>
+      <c r="E2">
+        <v>29.535</v>
+      </c>
       <c r="F2" s="7">
-        <v>44074.668055555558</v>
+        <v>44075.668055555558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B3">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="C3">
+        <v>3.8519999999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.774</v>
+      </c>
+      <c r="E3">
+        <v>3.8340000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B4">
+        <v>38.4</v>
+      </c>
+      <c r="C4">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="D4">
+        <v>39.4</v>
+      </c>
+      <c r="E4">
+        <v>39.82</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B5">
+        <v>21.44</v>
+      </c>
+      <c r="C5">
+        <v>22.22</v>
+      </c>
+      <c r="D5">
+        <v>21.71</v>
+      </c>
+      <c r="E5">
+        <v>21.94</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B6">
+        <v>22.19</v>
+      </c>
+      <c r="C6">
+        <v>23.1</v>
+      </c>
+      <c r="D6">
+        <v>22.58</v>
+      </c>
+      <c r="E6">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B7">
+        <v>21.16</v>
+      </c>
+      <c r="C7">
+        <v>22.07</v>
+      </c>
+      <c r="D7">
+        <v>21.65</v>
+      </c>
+      <c r="E7">
+        <v>21.83</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>31.9</v>
+      </c>
+      <c r="C8">
+        <v>33.1</v>
+      </c>
+      <c r="D8">
+        <v>32.56</v>
+      </c>
+      <c r="E8">
+        <v>32.85</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>0.2697</v>
+      </c>
+      <c r="C9">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.28100000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1.72</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>3.04</v>
+      </c>
+      <c r="C11">
+        <v>3.56</v>
+      </c>
+      <c r="D11">
+        <v>3.38</v>
+      </c>
+      <c r="E11">
+        <v>3.48</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="C12">
+        <v>20.34</v>
+      </c>
+      <c r="D12">
+        <v>19.87</v>
+      </c>
+      <c r="E12">
+        <v>20.07</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0.8246</v>
+      </c>
+      <c r="C13">
+        <v>1.0145999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E13">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B15">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="C16">
+        <v>35.86</v>
+      </c>
+      <c r="D16">
+        <v>35.14</v>
+      </c>
+      <c r="E16">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.7089999999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C18">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>6.0060000000000002</v>
+      </c>
+      <c r="C19">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="C20">
+        <v>4.3869999999999996</v>
+      </c>
+      <c r="D20">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="E20">
+        <v>4.3470000000000004</v>
       </c>
     </row>
   </sheetData>
